--- a/BatteryMonitorV2/docs/calculations.xlsx
+++ b/BatteryMonitorV2/docs/calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Arduino\BatteryMonitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\weather\BatteryMonitorV2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0021ACE9-CC25-4202-91B2-32D65AEE22A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF1ADC1-5906-4523-A4E1-40288D60EBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1245" windowWidth="23130" windowHeight="14955" xr2:uid="{4A970E83-E19C-43FF-A08A-F05F5E50D0B5}"/>
+    <workbookView xWindow="1950" yWindow="810" windowWidth="21615" windowHeight="14670" xr2:uid="{4A970E83-E19C-43FF-A08A-F05F5E50D0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Wemos D1 mini voltage monitor</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Voltage step</t>
+  </si>
+  <si>
+    <t>scalefactor</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +96,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -117,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -125,6 +136,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -466,22 +478,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -489,7 +501,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -497,16 +509,16 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -514,7 +526,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -523,7 +535,16 @@
         <v>3.968253968253968E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="15">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <f>1/D12</f>
+        <v>25.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
@@ -532,7 +553,7 @@
         <v>25.200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="15">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
@@ -540,12 +561,9 @@
         <f>D15/1024</f>
         <v>2.4609375000000003E-2</v>
       </c>
-      <c r="E16" s="5">
-        <f>D19/D16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
     </row>
   </sheetData>
